--- a/完成データ/時系列データ.xlsx
+++ b/完成データ/時系列データ.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,6 +1598,581 @@
       </c>
       <c r="AK11" t="n">
         <v>-1513.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3009</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3621</v>
+      </c>
+      <c r="D12" t="n">
+        <v>612</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4692.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3759.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-933.0000000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5927</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5047.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-879.5000000000002</v>
+      </c>
+      <c r="K12" t="n">
+        <v>504</v>
+      </c>
+      <c r="L12" t="n">
+        <v>265</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-239</v>
+      </c>
+      <c r="N12" t="n">
+        <v>14077.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>12526.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-1551.000000000001</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7962.100000000001</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7545.2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-416.9000000000015</v>
+      </c>
+      <c r="T12" t="n">
+        <v>18953</v>
+      </c>
+      <c r="U12" t="n">
+        <v>19739</v>
+      </c>
+      <c r="V12" t="n">
+        <v>786</v>
+      </c>
+      <c r="W12" t="n">
+        <v>44296.9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>46634.89999999999</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2338.000000000002</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>53316.4</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>56225.39999999999</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2909.000000000003</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3113</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1677</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-1436</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1151.1</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2978.2</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>748.9000000000001</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1273.1</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>3427.2</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>901.9000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6607</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7644</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1037</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6277.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6762.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>484.5999999999997</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9292</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9757.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>465.5999999999997</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1321</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1930</v>
+      </c>
+      <c r="M13" t="n">
+        <v>705</v>
+      </c>
+      <c r="N13" t="n">
+        <v>19962.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>19401.8</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-560.6999999999998</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>14212.2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>14587.1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>374.8999999999993</v>
+      </c>
+      <c r="T13" t="n">
+        <v>31117</v>
+      </c>
+      <c r="U13" t="n">
+        <v>33654</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2537</v>
+      </c>
+      <c r="W13" t="n">
+        <v>67795</v>
+      </c>
+      <c r="X13" t="n">
+        <v>68818.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1023.500000000003</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>82518.49999999999</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>85215</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2696.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7249</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1979</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-5157</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>3578.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>5134.2</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1349.7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6214.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>5927.7</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-603.3000000000004</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3815</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4421</v>
+      </c>
+      <c r="D14" t="n">
+        <v>343</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4386.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4012.2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-374.3999999999997</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5754.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5714.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-39.90000000000009</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1124</v>
+      </c>
+      <c r="L14" t="n">
+        <v>862</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-262</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12739</v>
+      </c>
+      <c r="O14" t="n">
+        <v>13869.8</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1130.800000000001</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7692.799999999999</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8144.9</v>
+      </c>
+      <c r="S14" t="n">
+        <v>452.1000000000008</v>
+      </c>
+      <c r="T14" t="n">
+        <v>21172</v>
+      </c>
+      <c r="U14" t="n">
+        <v>21122</v>
+      </c>
+      <c r="V14" t="n">
+        <v>732</v>
+      </c>
+      <c r="W14" t="n">
+        <v>46042.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>48598.10000000001</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3344.100000000002</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>56115.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>58906.60000000001</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>3633.600000000002</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2061</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1912</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-731</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>4675.4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1924</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-2606.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>5509.9</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>2482.9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>-3009.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5631</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4154</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1477</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3417.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2800.4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-617.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5523.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3981.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1541.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>747</v>
+      </c>
+      <c r="L15" t="n">
+        <v>822</v>
+      </c>
+      <c r="M15" t="n">
+        <v>75</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12618.6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10700.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-1918.2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>7544.3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4787</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-2757.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>19506</v>
+      </c>
+      <c r="U15" t="n">
+        <v>18949</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-924</v>
+      </c>
+      <c r="W15" t="n">
+        <v>44783.1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>41218.1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-3564.999999999998</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>51872.1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>50059.10000000001</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-2468.999999999998</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2344</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1472</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-872</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>723.3</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1135.7</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-39.79999999999995</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1051.8</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1555.2</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-57.79999999999995</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13386</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10829</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-2557</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11313</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12856.6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1543.600000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>16082.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16462.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>379.6000000000004</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1369</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1873</v>
+      </c>
+      <c r="M16" t="n">
+        <v>504</v>
+      </c>
+      <c r="N16" t="n">
+        <v>33058.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>35604.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1731.8</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>19371.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>20040.4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>668.9999999999995</v>
+      </c>
+      <c r="T16" t="n">
+        <v>61699</v>
+      </c>
+      <c r="U16" t="n">
+        <v>66591</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4892</v>
+      </c>
+      <c r="W16" t="n">
+        <v>128039.7</v>
+      </c>
+      <c r="X16" t="n">
+        <v>131441.7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3402.00000000001</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>157939.7</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>163283.7</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>5344.000000000011</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9230</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6630</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-2600</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7226</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>4572.7</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-1044.1</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>10714.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>5946.7</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-869.1000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/完成データ/時系列データ.xlsx
+++ b/完成データ/時系列データ.xlsx
@@ -1,43 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+  <si>
+    <t>銘柄</t>
+  </si>
+  <si>
+    <t>売買</t>
+  </si>
+  <si>
+    <t>アメリカ系合計</t>
+  </si>
+  <si>
+    <t>ネット証券他合計</t>
+  </si>
+  <si>
+    <t>ヨーロッパ系合計</t>
+  </si>
+  <si>
+    <t>国内大手合計</t>
+  </si>
+  <si>
+    <t>Topix</t>
+  </si>
+  <si>
+    <t>日経225合計</t>
+  </si>
+  <si>
+    <t>総合計</t>
+  </si>
+  <si>
+    <t>売り</t>
+  </si>
+  <si>
+    <t>買い</t>
+  </si>
+  <si>
+    <t>差引</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>2020-08-26</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,38 +126,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -85,83 +145,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -449,1729 +442,1591 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>アメリカ系合計</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ネット証券他合計</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>ヨーロッパ系合計</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="n"/>
-      <c r="AA1" s="1" t="n"/>
-      <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>国内大手合計</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="n"/>
-      <c r="AE1" s="1" t="n"/>
-      <c r="AF1" s="1" t="n"/>
-      <c r="AG1" s="1" t="n"/>
-      <c r="AH1" s="1" t="n"/>
-      <c r="AI1" s="1" t="n"/>
-      <c r="AJ1" s="1" t="n"/>
-      <c r="AK1" s="1" t="n"/>
+    <row r="1" spans="1:37">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>銘柄</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Topix</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n"/>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>日経225合計</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="n"/>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>総合計</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n"/>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>Topix</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="n"/>
-      <c r="M2" s="1" t="n"/>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>日経225合計</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="n"/>
-      <c r="P2" s="1" t="n"/>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>総合計</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="n"/>
-      <c r="S2" s="1" t="n"/>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>Topix</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="n"/>
-      <c r="V2" s="1" t="n"/>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>日経225合計</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="n"/>
-      <c r="Y2" s="1" t="n"/>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>総合計</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="n"/>
-      <c r="AB2" s="1" t="n"/>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>Topix</t>
-        </is>
-      </c>
-      <c r="AD2" s="1" t="n"/>
-      <c r="AE2" s="1" t="n"/>
-      <c r="AF2" s="1" t="inlineStr">
-        <is>
-          <t>日経225合計</t>
-        </is>
-      </c>
-      <c r="AG2" s="1" t="n"/>
-      <c r="AH2" s="1" t="n"/>
-      <c r="AI2" s="1" t="inlineStr">
-        <is>
-          <t>総合計</t>
-        </is>
-      </c>
-      <c r="AJ2" s="1" t="n"/>
-      <c r="AK2" s="1" t="n"/>
+    <row r="2" spans="1:37">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>売買</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="R3" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="U3" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="V3" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="W3" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="X3" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="Y3" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="Z3" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="AA3" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="AB3" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="AC3" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="AD3" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="AE3" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="AF3" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="AG3" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="AH3" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="AI3" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="AJ3" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="AK3" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-07</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:37">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>5077</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>7530</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-2532</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>4761.4</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>5229.7</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-468.2999999999998</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>6947.4</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>8440.700000000001</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>-1493.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>749</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>644</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>141</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>17418.4</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>18148</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>-729.6000000000013</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>9296.9</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>10821.9</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>-281.6000000000013</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>23168</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>20455</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>2749</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>60455.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>58320.39999999999</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>2135.099999999997</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>71224.5</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>68012.39999999999</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>3212.099999999997</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>6282</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>6223</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>59</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>2314.8</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>2594.5</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>-279.7000000000003</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>4839.3</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>5238.5</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>-399.1999999999998</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-11</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:37">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
         <v>11841</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>13035</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-1194</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>7776.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>11434.5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-2796</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>13394.5</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>17952</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>-3406</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>538</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>754</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>19084.9</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>13974.3</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>4577.000000000002</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>2842.6</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>9018.200000000001</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>306.8</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>42688</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>48035</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>-7319</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>64499.10000000001</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>66115.30000000002</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>2440.299999999996</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>83318.10000000001</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>87709.30000000002</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>899.2999999999956</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>11378</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>4875</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>2876</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>5741.5</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>6810.3</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>-2167.9</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>10653.5</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>8285</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>-1002.2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-12</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:37">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
         <v>9305</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>16916</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-7611</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>8667.799999999999</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>9255.300000000001</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-587.5000000000007</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>11837.3</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>14514.3</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>-2677</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>1445</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>881</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>344</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>24718</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>23929.1</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>788.9000000000005</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>14669.9</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>14256.4</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>413.4999999999994</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>47819</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>48655</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>-836</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>80997.3</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>85588.00000000001</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>-4590.700000000008</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>103925.3</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>108727.5</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>-4802.200000000007</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>13838</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>7870</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>4827</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>7894.6</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>2223.7</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>2845.8</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>11247.6</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>3530.2</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>4712.8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-13</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:37">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
         <v>10687</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>12246</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-665</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>12014.8</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>15135.7</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-469.3000000000002</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>16058.3</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>21258.7</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>-1475.3</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>974</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>909</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>128</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>19227.3</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>19990.3</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>-762.999999999998</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>13347.1</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>11511.5</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>-291.699999999998</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>41849</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>44390</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>-2541</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>90014.7</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>91696.19999999998</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>-1681.499999999993</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>109798.7</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>111285.7</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>-1487</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>10776</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>6864</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>3912</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>16934.3</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>7174.4</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>5863.6</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>22322.3</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>10248.4</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>7794.600000000001</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-14</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:37">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
         <v>10636</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>12278</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-1642</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>8251</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>8968.4</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>450.8999999999999</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>12318</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>15107.4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>-372.5999999999999</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>927</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>483</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>31</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>14252.3</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>14391.2</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>-290.9000000000004</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>8965.299999999999</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>9031.799999999999</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>-66.5000000000004</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>25382</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>25974</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>-482</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>60314.1</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>62811.39999999999</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>-2813.500000000001</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>72905.10000000001</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>75465.89999999999</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>-3237.500000000001</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>4800</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>4167</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>633</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>8308.299999999999</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>4996.9</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>5954.9</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>9755.299999999999</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>6671.4</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>6727.9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-20</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:37">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
         <v>13068</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>27482</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-13700</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>12470.2</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>12975.2</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1558.399999999999</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>15697.2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>22295.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>-584.6000000000017</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>2644</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>1354</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>540</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>34124</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>32746.6</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>410.2000000000029</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>14843.8</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>12657.8</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>911.8000000000006</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>93328</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>84042</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>9654</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>155373.6</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>160621</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>-5247.400000000015</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>200978.6</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>200341</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>637.5999999999858</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>10396</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>6244</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>2718</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>5907.799999999999</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>3024.8</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>1155.599999999999</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>8276.4</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>4408.8</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>2539.599999999999</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-21</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:37">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
         <v>4410</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4869</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-459</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>5532.799999999999</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>4755</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>777.7999999999998</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>7433.3</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>6651</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>782.2999999999997</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>671</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>492</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>65</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>16797.2</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>17311.7</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>-514.4999999999992</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>9918</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>9623.9</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>294.1000000000005</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>25170</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>26020</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>290</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>68432.89999999999</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>68960.5</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>-9.500000000003752</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>80052.39999999999</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>80963.49999999999</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>26.5</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>3242</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>1969</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>1273</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>2832.8</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>4438.9</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>-1580</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>3743.3</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>4917.4</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>-1513.5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-24</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:37">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
         <v>3009</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3621</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>612</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>4692.5</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>3759.5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-933.0000000000001</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>5927</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>5047.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>-879.5000000000002</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>504</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>265</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>-239</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>14077.4</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>12526.4</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>-1551.000000000001</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>7962.100000000001</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>7545.2</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>-416.9000000000015</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>18953</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>19739</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>786</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>44296.9</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>46634.89999999999</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>2338.000000000002</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>53316.4</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>56225.39999999999</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>2909.000000000003</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>3113</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>1677</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>-1436</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>1151.1</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>2978.2</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>748.9000000000001</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>1273.1</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>3427.2</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12">
         <v>901.9000000000001</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-25</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:37">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
         <v>6607</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>7644</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1037</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>6277.5</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>6762.1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>484.5999999999997</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>9292</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>9757.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>465.5999999999997</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>1321</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>1930</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>705</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>19962.5</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>19401.8</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>-560.6999999999998</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>14212.2</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>14587.1</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>374.8999999999993</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>31117</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>33654</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>2537</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>67795</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>68818.5</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>1023.500000000003</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>82518.49999999999</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>85215</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>2696.5</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>7249</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>1979</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>-5157</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>3578.5</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13">
         <v>5134.2</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13">
         <v>1349.7</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13">
         <v>6214.5</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13">
         <v>5927.7</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13">
         <v>-603.3000000000004</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-26</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:37">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
         <v>3815</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4421</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>343</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>4386.6</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>4012.2</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-374.3999999999997</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>5754.1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>5714.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>-39.90000000000009</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>1124</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>862</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>-262</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>12739</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>13869.8</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>1130.800000000001</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>7692.799999999999</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>8144.9</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>452.1000000000008</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>21172</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>21122</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>732</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>46042.5</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>48598.10000000001</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>3344.100000000002</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>56115.5</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>58906.60000000001</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>3633.600000000002</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>2061</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>1912</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14">
         <v>-731</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>4675.4</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14">
         <v>1924</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14">
         <v>-2606.5</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14">
         <v>5509.9</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14">
         <v>2482.9</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14">
         <v>-3009.5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-27</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:37">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
         <v>5631</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4154</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-1477</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>3417.6</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>2800.4</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-617.2</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>5523.6</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>3981.9</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>-1541.7</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>747</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>822</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>75</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>12618.6</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>10700.4</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>-1918.2</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>7544.3</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>4787</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>-2757.3</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>19506</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>18949</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>-924</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>44783.1</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>41218.1</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>-3564.999999999998</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15">
         <v>51872.1</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15">
         <v>50059.10000000001</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15">
         <v>-2468.999999999998</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15">
         <v>2344</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15">
         <v>1472</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15">
         <v>-872</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15">
         <v>723.3</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15">
         <v>1135.7</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15">
         <v>-39.79999999999995</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15">
         <v>1051.8</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15">
         <v>1555.2</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15">
         <v>-57.79999999999995</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-28</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:37">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
         <v>13386</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>10829</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-2557</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>11313</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>12856.6</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>1543.600000000001</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>16082.5</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>16462.1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>379.6000000000004</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>1369</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>1873</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>504</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>33058.2</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>35604.2</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>1731.8</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>19371.4</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>20040.4</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>668.9999999999995</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>61699</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16">
         <v>66591</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16">
         <v>4892</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16">
         <v>128039.7</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16">
         <v>131441.7</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16">
         <v>3402.00000000001</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16">
         <v>157939.7</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16">
         <v>163283.7</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16">
         <v>5344.000000000011</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16">
         <v>9230</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16">
         <v>6630</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16">
         <v>-2600</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16">
         <v>7226</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16">
         <v>4572.7</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16">
         <v>-1044.1</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16">
         <v>10714.5</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16">
         <v>5946.7</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16">
         <v>-869.1000000000004</v>
       </c>
     </row>
@@ -2194,6 +2049,6 @@
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>